--- a/excel/template.xlsx
+++ b/excel/template.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\news-crawler\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\proxy-pool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397291CA-5B00-4A85-ACDE-864B1A7D5D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21BC07-FE06-40F0-A097-38FE97BB1D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="百度" sheetId="1" r:id="rId1"/>
     <sheet name="微信公众号" sheetId="3" r:id="rId2"/>
     <sheet name="微博" sheetId="2" r:id="rId3"/>
+    <sheet name="新浪财经" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -68,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +94,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -677,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8625376D-B726-4603-94AB-1ACF2AAF865A}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -770,4 +777,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5369BC21-1296-4D8E-A0C2-B0E18E8F7589}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>